--- a/docs/test.xlsx
+++ b/docs/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>总数</t>
   </si>
@@ -42,22 +42,16 @@
   <si>
     <t>K8s性能跃升</t>
   </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>202201251621</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,7 +63,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,16 +106,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,23 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +160,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -158,61 +198,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,43 +215,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,67 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,73 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,23 +412,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,38 +421,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +453,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -518,153 +491,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -672,10 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +982,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1051,7 +1036,7 @@
         <v>1600</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F11" si="0">A2/C2</f>
+        <f t="shared" ref="F2:F12" si="0">A2/C2</f>
         <v>25</v>
       </c>
       <c r="G2" t="s">
@@ -1073,7 +1058,7 @@
         <v>1.25</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" si="2">1000/D3</f>
+        <f t="shared" ref="E3:E12" si="2">1000/D3</f>
         <v>800</v>
       </c>
       <c r="F3">
@@ -1246,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <f>1000/D10</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F10">
@@ -1269,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <f>1000/D11</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="F11">
@@ -1292,20 +1277,81 @@
         <v>40</v>
       </c>
       <c r="E12" s="1">
-        <f>1000/D12</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F12">
-        <f>A12/C12</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f>C13*FLOOR(B13*1000/E13,1)</f>
+        <v>170624</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <f>(A13/B13/C13)</f>
+        <v>66.65</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f>A13/C13</f>
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f>C14*FLOOR(B14*1000/E14,1)</f>
+        <v>182848</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <f>(A14/B14/C14)</f>
+        <v>71.425</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <f>A14/C14</f>
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f>C15*FLOOR(B15*1000/E15,1)</f>
+        <v>196864</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <f>(A15/B15/C15)</f>
+        <v>76.9</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f>A15/C15</f>
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
